--- a/SuppXLS/Scen_UC_Constraints.xlsx
+++ b/SuppXLS/Scen_UC_Constraints.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,32 +465,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>commodity</t>
+          <t>side</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>uc_comprd</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>limtype</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>limtype</t>
+          <t>uc_rhs</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>process</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>uc_act</t>
         </is>
       </c>
     </row>
@@ -515,20 +520,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,20 +553,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -591,20 +586,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,18 +617,13 @@
       <c r="D8" t="n">
         <v>2020</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>100</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -660,18 +645,13 @@
       <c r="D9" t="n">
         <v>2030</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>75</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -693,18 +673,13 @@
       <c r="D10" t="n">
         <v>2040</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>50</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -726,23 +701,18 @@
       <c r="D11" t="n">
         <v>2020</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PP_WIND</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>PP_WIND</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -764,23 +734,18 @@
       <c r="D12" t="n">
         <v>2020</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PP_SOLAR</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>PP_SOLAR</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -804,20 +769,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -840,18 +800,13 @@
       <c r="D14" t="n">
         <v>2020</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -873,23 +828,18 @@
       <c r="D15" t="n">
         <v>2030</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PP_WIND</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>PP_WIND</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -911,23 +861,18 @@
       <c r="D16" t="n">
         <v>2030</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PP_SOLAR</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>PP_SOLAR</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -951,20 +896,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -987,18 +927,13 @@
       <c r="D18" t="n">
         <v>2030</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -1020,23 +955,18 @@
       <c r="D19" t="n">
         <v>2040</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PP_WIND</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>PP_WIND</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -1058,23 +988,18 @@
       <c r="D20" t="n">
         <v>2040</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>UC_ACT</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PP_SOLAR</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>PP_SOLAR</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -1098,20 +1023,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UC_COMPRD</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>LHS</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+          <t>LHS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1134,18 +1054,13 @@
       <c r="D22" t="n">
         <v>2040</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>UC_RHSRT</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_Constraints.xlsx
+++ b/SuppXLS/Scen_UC_Constraints.xlsx
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_SETS: T_E: </t>
+          <t>~UC_SETS: T_E</t>
         </is>
       </c>
     </row>

--- a/SuppXLS/Scen_UC_Constraints.xlsx
+++ b/SuppXLS/Scen_UC_Constraints.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>uc_rhs</t>
+          <t>uc_rhsrt</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
